--- a/sofaplayer/Ligue_1/Auxerre_stats.xlsx
+++ b/sofaplayer/Ligue_1/Auxerre_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>927005</v>
       </c>
       <c r="E2" t="n">
-        <v>6.83</v>
+        <v>6.852380952381</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1715</v>
+        <v>1805</v>
       </c>
       <c r="I2" t="n">
         <v>2</v>
@@ -1053,22 +1053,22 @@
         <v>6</v>
       </c>
       <c r="K2" t="n">
-        <v>6.7096</v>
+        <v>7.0521</v>
       </c>
       <c r="L2" t="n">
-        <v>285.83333333333</v>
+        <v>300.83333333333</v>
       </c>
       <c r="M2" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P2" t="n">
-        <v>12.244897959184</v>
+        <v>11.111111111111</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -1098,70 +1098,70 @@
         <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.13920864</v>
+        <v>2.31266364</v>
       </c>
       <c r="AB2" t="n">
-        <v>779</v>
+        <v>851</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="AF2" t="n">
-        <v>76.169265033408</v>
+        <v>76.706827309237</v>
       </c>
       <c r="AG2" t="n">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="AH2" t="n">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="AI2" t="n">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="AJ2" t="n">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="AK2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>64.28571428571399</v>
+        <v>62.5</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>25</v>
+        <v>22.727272727273</v>
       </c>
       <c r="AO2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR2" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="AS2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>25</v>
       </c>
       <c r="AZ2" t="n">
-        <v>52.083333333333</v>
+        <v>51.020408163265</v>
       </c>
       <c r="BA2" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="BB2" t="n">
-        <v>42.666666666667</v>
+        <v>43.56846473029</v>
       </c>
       <c r="BC2" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="BD2" t="n">
-        <v>51.034482758621</v>
+        <v>51.282051282051</v>
       </c>
       <c r="BE2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BF2" t="n">
-        <v>27.5</v>
+        <v>29.411764705882</v>
       </c>
       <c r="BG2" t="n">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="BH2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI2" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BJ2" t="n">
         <v>6</v>
       </c>
       <c r="BK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
@@ -1221,28 +1221,28 @@
         <v>2</v>
       </c>
       <c r="BO2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>136.6</v>
+        <v>143.9</v>
       </c>
       <c r="BR2" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>9</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>116</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
         <v>20</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>8</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>107</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>18</v>
       </c>
       <c r="BW2" t="n">
         <v>4</v>
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CA2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CB2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CD2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK2" t="n">
         <v>3</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
+        <v>26</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>49</v>
+      </c>
+      <c r="CT2" t="n">
         <v>22</v>
       </c>
-      <c r="CS2" t="n">
-        <v>48</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>20</v>
-      </c>
       <c r="CU2" t="n">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="CV2" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>1</v>
       </c>
       <c r="CZ2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DA2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="DB2" t="n">
-        <v>60</v>
+        <v>62.5</v>
       </c>
       <c r="DC2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="DG2" t="n">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1747,35 +1747,35 @@
         <v>1047484</v>
       </c>
       <c r="E4" t="n">
-        <v>6.4866666666667</v>
+        <v>6.48125</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
+        <v>9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>827</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.8301</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>21</v>
+      </c>
+      <c r="N4" t="n">
         <v>8</v>
       </c>
-      <c r="H4" t="n">
-        <v>755</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1.7576</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
       <c r="O4" t="n">
         <v>1</v>
       </c>
@@ -1813,10 +1813,10 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.99493722</v>
+        <v>1.00421775</v>
       </c>
       <c r="AB4" t="n">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AC4" t="n">
         <v>1</v>
@@ -1825,22 +1825,22 @@
         <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.793103448276</v>
+        <v>74.842767295597</v>
       </c>
       <c r="AG4" t="n">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AJ4" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="AK4" t="n">
         <v>6</v>
@@ -1855,25 +1855,25 @@
         <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS4" t="n">
         <v>3</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>4</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1885,37 +1885,37 @@
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>50</v>
+        <v>47.826086956522</v>
       </c>
       <c r="BA4" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="BB4" t="n">
-        <v>41.176470588235</v>
+        <v>41.044776119403</v>
       </c>
       <c r="BC4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BD4" t="n">
-        <v>44.776119402985</v>
+        <v>44.871794871795</v>
       </c>
       <c r="BE4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF4" t="n">
-        <v>36.538461538462</v>
+        <v>35.714285714286</v>
       </c>
       <c r="BG4" t="n">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="BH4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BJ4" t="n">
         <v>2</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>97.3</v>
+        <v>103.7</v>
       </c>
       <c r="BR4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS4" t="n">
         <v>1</v>
       </c>
       <c r="BT4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -1966,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="BZ4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CB4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CC4" t="n">
         <v>2</v>
@@ -2023,16 +2023,16 @@
         <v>6</v>
       </c>
       <c r="CS4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="CV4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>4</v>
       </c>
       <c r="DB4" t="n">
-        <v>66.666666666667</v>
+        <v>50</v>
       </c>
       <c r="DC4" t="n">
         <v>0</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="DG4" t="n">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2457,16 +2457,16 @@
         <v>1035986</v>
       </c>
       <c r="E6" t="n">
-        <v>6.5105263157895</v>
+        <v>6.515</v>
       </c>
       <c r="F6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="n">
         <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>1107</v>
+        <v>1125</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2523,40 +2523,40 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.95349326</v>
+        <v>0.96769346</v>
       </c>
       <c r="AB6" t="n">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AF6" t="n">
-        <v>78.22349570200601</v>
+        <v>78.212290502793</v>
       </c>
       <c r="AG6" t="n">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="AH6" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="AI6" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AJ6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="n">
         <v>10</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>47.619047619048</v>
       </c>
       <c r="AM6" t="n">
         <v>9</v>
@@ -2568,19 +2568,19 @@
         <v>9</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ6" t="n">
         <v>5</v>
       </c>
       <c r="AR6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AS6" t="n">
         <v>7</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU6" t="n">
         <v>5</v>
@@ -2601,16 +2601,16 @@
         <v>53.846153846154</v>
       </c>
       <c r="BA6" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="BB6" t="n">
-        <v>52.554744525547</v>
+        <v>52.517985611511</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BD6" t="n">
-        <v>52.577319587629</v>
+        <v>52.525252525253</v>
       </c>
       <c r="BE6" t="n">
         <v>21</v>
@@ -2619,10 +2619,10 @@
         <v>52.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="BH6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BI6" t="n">
         <v>23</v>
@@ -2631,7 +2631,7 @@
         <v>3</v>
       </c>
       <c r="BK6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL6" t="n">
         <v>1</v>
@@ -2643,22 +2643,22 @@
         <v>0</v>
       </c>
       <c r="BO6" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>130.3</v>
+      </c>
+      <c r="BR6" t="n">
         <v>20</v>
       </c>
-      <c r="BP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>123.7</v>
-      </c>
-      <c r="BR6" t="n">
-        <v>19</v>
-      </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="CJ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK6" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="CR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS6" t="n">
         <v>13</v>
@@ -2739,7 +2739,7 @@
         <v>47</v>
       </c>
       <c r="CU6" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="CV6" t="n">
         <v>19</v>
@@ -2754,13 +2754,13 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="DA6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="DB6" t="n">
-        <v>52.380952380952</v>
+        <v>54.545454545455</v>
       </c>
       <c r="DC6" t="n">
         <v>1</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="DG6" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>904424</v>
       </c>
       <c r="E8" t="n">
-        <v>6.70625</v>
+        <v>6.7352941176471</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>1183</v>
+        <v>1273</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.37625365</v>
+        <v>0.38350362</v>
       </c>
       <c r="AB8" t="n">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
@@ -3247,28 +3247,28 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="AF8" t="n">
-        <v>81.83807439824901</v>
+        <v>82.57261410788399</v>
       </c>
       <c r="AG8" t="n">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="AH8" t="n">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="AI8" t="n">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AJ8" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>48.484848484848</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
@@ -3277,22 +3277,22 @@
         <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AQ8" t="n">
         <v>8</v>
       </c>
       <c r="AR8" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="AS8" t="n">
         <v>10</v>
       </c>
       <c r="AT8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU8" t="n">
         <v>1</v>
@@ -3313,16 +3313,16 @@
         <v>71.428571428571</v>
       </c>
       <c r="BA8" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BB8" t="n">
-        <v>48.598130841121</v>
+        <v>50</v>
       </c>
       <c r="BC8" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>52.873563218391</v>
+        <v>54.255319148936</v>
       </c>
       <c r="BE8" t="n">
         <v>6</v>
@@ -3331,13 +3331,13 @@
         <v>30</v>
       </c>
       <c r="BG8" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="BH8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BI8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -3355,22 +3355,22 @@
         <v>3</v>
       </c>
       <c r="BO8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>107.3</v>
+        <v>114.5</v>
       </c>
       <c r="BR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
       </c>
       <c r="BT8" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3394,14 +3394,14 @@
         <v>3</v>
       </c>
       <c r="CB8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>18</v>
+      </c>
+      <c r="CD8" t="n">
         <v>9</v>
       </c>
-      <c r="CC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="CD8" t="n">
-        <v>8</v>
-      </c>
       <c r="CE8" t="n">
         <v>0</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="CU8" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="CV8" t="n">
         <v>14</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="DA8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="DB8" t="n">
-        <v>64.705882352941</v>
+        <v>64.864864864865</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3484,16 +3484,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="DG8" t="n">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DJ8" t="n">
         <v>2145549</v>
@@ -3525,106 +3525,106 @@
         <v>913942</v>
       </c>
       <c r="E9" t="n">
-        <v>6.6666666666667</v>
+        <v>6.775</v>
       </c>
       <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>168</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>96</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0598</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.3699376</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>102</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>56</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>88.888888888889</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>63</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.0646496</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>62</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>92.682926829268</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
@@ -3663,172 +3663,172 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AZ9" t="n">
-        <v>50</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BB9" t="n">
-        <v>60</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BC9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD9" t="n">
-        <v>55.555555555556</v>
+        <v>55</v>
       </c>
       <c r="BE9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF9" t="n">
         <v>100</v>
       </c>
       <c r="BG9" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="BH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
         <v>2</v>
       </c>
-      <c r="BI9" t="n">
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC9" t="n">
         <v>3</v>
       </c>
-      <c r="BJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>20</v>
-      </c>
-      <c r="BR9" t="n">
+      <c r="CD9" t="n">
         <v>3</v>
       </c>
-      <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>7</v>
+      </c>
+      <c r="CT9" t="n">
         <v>3</v>
       </c>
-      <c r="BU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS9" t="n">
+      <c r="CU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="n">
         <v>2</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="DA9" t="n">
         <v>2</v>
       </c>
-      <c r="CU9" t="n">
-        <v>4</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA9" t="n">
-        <v>0</v>
-      </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="DG9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -3874,341 +3874,341 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Naouirou Ahamada</t>
+          <t>Kévin Danois</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>997104</v>
+        <v>1151803</v>
       </c>
       <c r="E10" t="n">
-        <v>6.675</v>
+        <v>6.9761904761905</v>
       </c>
       <c r="F10" t="n">
+        <v>21</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1762</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.5452</v>
+      </c>
+      <c r="L10" t="n">
+        <v>881</v>
+      </c>
+      <c r="M10" t="n">
+        <v>19</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10.526315789474</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2.96434006</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1257</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>785</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>85.886214442013</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>914</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>333</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>452</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>246</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>54</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>72</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>33.783783783784</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>86</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>45.502645502645</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>80</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>47.904191616766</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>27.272727272727</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>260</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>5</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>25</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>21</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>129</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>7</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="CB10" t="n">
+        <v>26</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>72</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>45</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>21</v>
+      </c>
+      <c r="CK10" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>209</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1461</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.08966747999999999</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>109</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>34</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>40</v>
+      </c>
+      <c r="CT10" t="n">
         <v>74</v>
       </c>
-      <c r="AF10" t="n">
-        <v>86.04651162790699</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>86</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
+      <c r="CU10" t="n">
+        <v>103</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>16</v>
+      </c>
+      <c r="CW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>75</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>23</v>
+      </c>
+      <c r="DB10" t="n">
+        <v>57.5</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>366</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>548</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
         <v>2</v>
       </c>
-      <c r="AZ10" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>58.823529411765</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>8</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>53.333333333333</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>22</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>26.7</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>12</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS10" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="n">
-        <v>4</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB10" t="n">
-        <v>100</v>
-      </c>
-      <c r="DC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF10" t="n">
-        <v>34</v>
-      </c>
-      <c r="DG10" t="n">
-        <v>52</v>
-      </c>
-      <c r="DH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI10" t="n">
-        <v>0</v>
-      </c>
       <c r="DJ10" t="n">
-        <v>2597144</v>
+        <v>2145547</v>
       </c>
       <c r="DK10" t="inlineStr">
         <is>
@@ -4230,341 +4230,341 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Kévin Danois</t>
+          <t>Naouirou Ahamada</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1151803</v>
+        <v>997104</v>
       </c>
       <c r="E11" t="n">
-        <v>6.91</v>
+        <v>6.66</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>1673</v>
+        <v>291</v>
       </c>
       <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.2357</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.21185348</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>146</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>94</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>87.037037037037</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>108</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>56</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>33</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS11" t="n">
         <v>2</v>
       </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1.3883</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1673</v>
-      </c>
-      <c r="M11" t="n">
-        <v>17</v>
-      </c>
-      <c r="N11" t="n">
+      <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>42.857142857143</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>54.545454545455</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>50</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>27</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="BR11" t="n">
         <v>5</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.8823529411765</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2.81350806</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1183</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>743</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>85.796766743649</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>866</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>316</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>427</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>233</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>53</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>71.621621621622</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>38</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>9</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>119</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AT11" t="n">
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>14</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>4</v>
+      </c>
+      <c r="CS11" t="n">
         <v>7</v>
       </c>
-      <c r="AU11" t="n">
+      <c r="CT11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>5</v>
+      </c>
+      <c r="DA11" t="n">
         <v>4</v>
       </c>
-      <c r="AV11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>58.333333333333</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>79</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>44.134078212291</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>73</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>46.20253164557</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>6</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>244</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>18</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>14</v>
-      </c>
-      <c r="BJ11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK11" t="n">
-        <v>3</v>
-      </c>
-      <c r="BL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="BO11" t="n">
-        <v>25</v>
-      </c>
-      <c r="BP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ11" t="n">
-        <v>138.2</v>
-      </c>
-      <c r="BR11" t="n">
-        <v>20</v>
-      </c>
-      <c r="BS11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>123</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>8</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>6</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>69</v>
-      </c>
-      <c r="CD11" t="n">
+      <c r="DB11" t="n">
+        <v>100</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF11" t="n">
         <v>44</v>
       </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>33</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>36</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>65</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>100</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>15</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>74</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>23</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>60.526315789474</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>348</v>
-      </c>
       <c r="DG11" t="n">
-        <v>518</v>
+        <v>64</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
       </c>
       <c r="DI11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2145547</v>
+        <v>2597144</v>
       </c>
       <c r="DK11" t="inlineStr">
         <is>
@@ -4593,16 +4593,16 @@
         <v>1126588</v>
       </c>
       <c r="E12" t="n">
-        <v>6.725</v>
+        <v>6.6923076923077</v>
       </c>
       <c r="F12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.34775566</v>
+        <v>0.34849968</v>
       </c>
       <c r="AB12" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4671,28 +4671,28 @@
         <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AF12" t="n">
-        <v>81.818181818182</v>
+        <v>80.645161290323</v>
       </c>
       <c r="AG12" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI12" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
         <v>4</v>
       </c>
       <c r="AL12" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
@@ -4701,7 +4701,7 @@
         <v>25</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
         <v>6</v>
@@ -4710,10 +4710,10 @@
         <v>1</v>
       </c>
       <c r="AR12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>0</v>
@@ -4731,22 +4731,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ12" t="n">
-        <v>76.470588235294</v>
+        <v>73.68421052631599</v>
       </c>
       <c r="BA12" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>60.377358490566</v>
+      </c>
+      <c r="BC12" t="n">
         <v>30</v>
       </c>
-      <c r="BB12" t="n">
-        <v>63.829787234043</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>28</v>
-      </c>
       <c r="BD12" t="n">
-        <v>62.222222222222</v>
+        <v>58.823529411765</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
@@ -4755,13 +4755,13 @@
         <v>100</v>
       </c>
       <c r="BG12" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="BH12" t="n">
         <v>8</v>
       </c>
       <c r="BI12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ12" t="n">
         <v>2</v>
@@ -4779,22 +4779,22 @@
         <v>0</v>
       </c>
       <c r="BO12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>80.7</v>
+        <v>87</v>
       </c>
       <c r="BR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS12" t="n">
         <v>0</v>
       </c>
       <c r="BT12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4818,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="CB12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC12" t="n">
         <v>2</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4869,13 +4869,13 @@
         <v>3</v>
       </c>
       <c r="CS12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CT12" t="n">
         <v>16</v>
       </c>
       <c r="CU12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CV12" t="n">
         <v>0</v>
@@ -4890,7 +4890,7 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DA12" t="n">
         <v>5</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="DG12" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>782240</v>
       </c>
       <c r="E13" t="n">
-        <v>6.64</v>
+        <v>6.6272727272727</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5015,10 +5015,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.16388294</v>
+        <v>0.29777494</v>
       </c>
       <c r="AB13" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -5027,28 +5027,28 @@
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AF13" t="n">
-        <v>92.700729927007</v>
+        <v>91.48936170212799</v>
       </c>
       <c r="AG13" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="AH13" t="n">
         <v>55</v>
       </c>
       <c r="AI13" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>71.428571428571</v>
+        <v>73.333333333333</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
@@ -5066,13 +5066,13 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS13" t="n">
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU13" t="n">
         <v>2</v>
@@ -5096,13 +5096,13 @@
         <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>44</v>
+        <v>42.307692307692</v>
       </c>
       <c r="BC13" t="n">
         <v>9</v>
       </c>
       <c r="BD13" t="n">
-        <v>50</v>
+        <v>47.368421052632</v>
       </c>
       <c r="BE13" t="n">
         <v>2</v>
@@ -5111,10 +5111,10 @@
         <v>28.571428571429</v>
       </c>
       <c r="BG13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI13" t="n">
         <v>3</v>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>66.40000000000001</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="BR13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK13" t="n">
         <v>2</v>
@@ -5231,7 +5231,7 @@
         <v>6</v>
       </c>
       <c r="CU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CV13" t="n">
         <v>5</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="DA13" t="n">
         <v>2</v>
@@ -5267,7 +5267,7 @@
         <v>58</v>
       </c>
       <c r="DG13" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -6371,16 +6371,16 @@
         <v>1387156</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7263157894737</v>
+        <v>6.74</v>
       </c>
       <c r="F17" t="n">
+        <v>20</v>
+      </c>
+      <c r="G17" t="n">
         <v>19</v>
       </c>
-      <c r="G17" t="n">
-        <v>18</v>
-      </c>
       <c r="H17" t="n">
-        <v>1590</v>
+        <v>1680</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6437,64 +6437,64 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.72368912</v>
+        <v>0.75832772</v>
       </c>
       <c r="AB17" t="n">
-        <v>1137</v>
+        <v>1201</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
-        <v>725</v>
+        <v>751</v>
       </c>
       <c r="AF17" t="n">
-        <v>80.73496659242799</v>
+        <v>80.665950590763</v>
       </c>
       <c r="AG17" t="n">
-        <v>898</v>
+        <v>931</v>
       </c>
       <c r="AH17" t="n">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="AI17" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="AJ17" t="n">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="n">
         <v>64</v>
       </c>
       <c r="AL17" t="n">
-        <v>35.555555555556</v>
+        <v>35.164835164835</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
-        <v>37.5</v>
+        <v>35.714285714286</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
       </c>
       <c r="AR17" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AU17" t="n">
         <v>3</v>
@@ -6509,37 +6509,37 @@
         <v>1</v>
       </c>
       <c r="AY17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ17" t="n">
-        <v>88.888888888889</v>
+        <v>84.615384615385</v>
       </c>
       <c r="BA17" t="n">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="BB17" t="n">
-        <v>67.69230769230801</v>
+        <v>67.857142857143</v>
       </c>
       <c r="BC17" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="BD17" t="n">
-        <v>76</v>
+        <v>76.19047619047601</v>
       </c>
       <c r="BE17" t="n">
         <v>31</v>
       </c>
       <c r="BF17" t="n">
-        <v>56.363636363636</v>
+        <v>55.357142857143</v>
       </c>
       <c r="BG17" t="n">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="BH17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI17" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="BJ17" t="n">
         <v>1</v>
@@ -6557,22 +6557,22 @@
         <v>4</v>
       </c>
       <c r="BO17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>127.8</v>
+        <v>134.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
         <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6599,7 +6599,7 @@
         <v>2</v>
       </c>
       <c r="CC17" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="CD17" t="n">
         <v>51</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CK17" t="n">
         <v>2</v>
@@ -6644,19 +6644,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CS17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CT17" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="CU17" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CV17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6668,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="DA17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB17" t="n">
-        <v>61.538461538462</v>
+        <v>62.962962962963</v>
       </c>
       <c r="DC17" t="n">
         <v>1</v>
@@ -6686,16 +6686,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="DG17" t="n">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="DH17" t="n">
         <v>11</v>
       </c>
       <c r="DI17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="DJ17" t="n">
         <v>2145543</v>
@@ -6727,16 +6727,16 @@
         <v>996951</v>
       </c>
       <c r="E18" t="n">
-        <v>6.8727272727273</v>
+        <v>6.8666666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -6745,13 +6745,13 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1.1934</v>
+        <v>1.2099</v>
       </c>
       <c r="L18" t="n">
-        <v>964</v>
+        <v>1054</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N18" t="n">
         <v>1</v>
@@ -6760,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>33.333333333333</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6793,10 +6793,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.09376211</v>
+        <v>0.0967408</v>
       </c>
       <c r="AB18" t="n">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -6805,28 +6805,28 @@
         <v>1</v>
       </c>
       <c r="AE18" t="n">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="AF18" t="n">
-        <v>87.892376681614</v>
+        <v>87.606837606838</v>
       </c>
       <c r="AG18" t="n">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="AH18" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="AI18" t="n">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AJ18" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>58.461538461538</v>
+        <v>57.971014492754</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6835,28 +6835,28 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -6871,34 +6871,34 @@
         <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="BB18" t="n">
-        <v>59.210526315789</v>
+        <v>59.259259259259</v>
       </c>
       <c r="BC18" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
-        <v>53.333333333333</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BE18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BF18" t="n">
-        <v>67.741935483871</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BG18" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="BH18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI18" t="n">
         <v>10</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18" t="n">
         <v>1</v>
@@ -6913,28 +6913,28 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>75.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="BR18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS18" t="n">
         <v>1</v>
       </c>
       <c r="BT18" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6949,16 +6949,16 @@
         <v>3</v>
       </c>
       <c r="CA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB18" t="n">
         <v>1</v>
       </c>
       <c r="CC18" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CD18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6976,7 +6976,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK18" t="n">
         <v>4</v>
@@ -7009,28 +7009,28 @@
         <v>0</v>
       </c>
       <c r="CU18" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CV18" t="n">
+        <v>11</v>
+      </c>
+      <c r="CW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>69</v>
+      </c>
+      <c r="DA18" t="n">
         <v>10</v>
       </c>
-      <c r="CW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ18" t="n">
-        <v>65</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>8</v>
-      </c>
       <c r="DB18" t="n">
-        <v>61.538461538462</v>
+        <v>66.666666666667</v>
       </c>
       <c r="DC18" t="n">
         <v>1</v>
@@ -7042,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="DG18" t="n">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="DH18" t="n">
         <v>4</v>
@@ -7083,16 +7083,16 @@
         <v>1177351</v>
       </c>
       <c r="E19" t="n">
-        <v>6.6538461538462</v>
+        <v>6.6857142857143</v>
       </c>
       <c r="F19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
-        <v>860</v>
+        <v>942</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7101,13 +7101,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6211</v>
+        <v>0.713</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -7149,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.63125791</v>
+        <v>0.68237651</v>
       </c>
       <c r="AB19" t="n">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="AC19" t="n">
         <v>2</v>
@@ -7161,52 +7161,52 @@
         <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AF19" t="n">
-        <v>81.818181818182</v>
+        <v>82.121212121212</v>
       </c>
       <c r="AG19" t="n">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="AH19" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AI19" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="AJ19" t="n">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AK19" t="n">
         <v>10</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>37.037037037037</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>14.814814814815</v>
+        <v>14.285714285714</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AQ19" t="n">
         <v>5</v>
       </c>
       <c r="AR19" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AS19" t="n">
         <v>6</v>
       </c>
       <c r="AT19" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AU19" t="n">
         <v>1</v>
@@ -7221,31 +7221,31 @@
         <v>0</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
-        <v>33.333333333333</v>
+        <v>34.782608695652</v>
       </c>
       <c r="BA19" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="BB19" t="n">
-        <v>59.259259259259</v>
+        <v>59.770114942529</v>
       </c>
       <c r="BC19" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BD19" t="n">
-        <v>57.333333333333</v>
+        <v>57.5</v>
       </c>
       <c r="BE19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF19" t="n">
-        <v>83.333333333333</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="BG19" t="n">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="BH19" t="n">
         <v>9</v>
@@ -7275,22 +7275,22 @@
         <v>0</v>
       </c>
       <c r="BQ19" t="n">
-        <v>86.5</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="BR19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS19" t="n">
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="BU19" t="n">
         <v>0</v>
       </c>
       <c r="BV19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW19" t="n">
         <v>0</v>
@@ -7302,13 +7302,13 @@
         <v>0</v>
       </c>
       <c r="BZ19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA19" t="n">
         <v>0</v>
       </c>
       <c r="CB19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC19" t="n">
         <v>4</v>
@@ -7359,34 +7359,34 @@
         <v>9</v>
       </c>
       <c r="CS19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="CT19" t="n">
+        <v>28</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>35</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>27</v>
       </c>
-      <c r="CU19" t="n">
-        <v>33</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>25</v>
-      </c>
       <c r="DA19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="DB19" t="n">
-        <v>57.692307692308</v>
+        <v>60.714285714286</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="DG19" t="n">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>6.8</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7503,226 +7503,226 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.00010101</v>
+        <v>0.04584581</v>
       </c>
       <c r="AB20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>66.666666666667</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>80</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG20" t="n">
         <v>5</v>
       </c>
-      <c r="AC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE20" t="n">
+      <c r="BH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD20" t="n">
         <v>3</v>
       </c>
-      <c r="AF20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG20" t="n">
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
         <v>3</v>
       </c>
-      <c r="AH20" t="n">
-        <v>3</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>100</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="BR20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0</v>
-      </c>
       <c r="CV20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7734,13 +7734,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="DA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7752,16 +7752,16 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="DG20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
       </c>
       <c r="DI20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DJ20" t="n">
         <v>2623616</v>
@@ -7793,16 +7793,16 @@
         <v>1087805</v>
       </c>
       <c r="E21" t="n">
-        <v>6.7066666666667</v>
+        <v>6.6875</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
         <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7859,10 +7859,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.35163136</v>
+        <v>0.35163254</v>
       </c>
       <c r="AB21" t="n">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7871,16 +7871,16 @@
         <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AF21" t="n">
-        <v>77.665995975855</v>
+        <v>77.710843373494</v>
       </c>
       <c r="AG21" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AH21" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AI21" t="n">
         <v>147</v>
@@ -7901,7 +7901,7 @@
         <v>23.333333333333</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
         <v>37</v>
@@ -7916,7 +7916,7 @@
         <v>10</v>
       </c>
       <c r="AT21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AU21" t="n">
         <v>6</v>
@@ -7937,10 +7937,10 @@
         <v>18.75</v>
       </c>
       <c r="BA21" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB21" t="n">
-        <v>58.823529411765</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BC21" t="n">
         <v>63</v>
@@ -7949,10 +7949,10 @@
         <v>58.878504672897</v>
       </c>
       <c r="BE21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BF21" t="n">
-        <v>58.695652173913</v>
+        <v>59.574468085106</v>
       </c>
       <c r="BG21" t="n">
         <v>188</v>
@@ -7979,16 +7979,16 @@
         <v>2</v>
       </c>
       <c r="BO21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>100.6</v>
+        <v>107</v>
       </c>
       <c r="BR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
@@ -8042,7 +8042,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK21" t="n">
         <v>2</v>
@@ -8108,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DG21" t="n">
         <v>227</v>
@@ -8861,16 +8861,16 @@
         <v>159837</v>
       </c>
       <c r="E24" t="n">
-        <v>7.3157894736842</v>
+        <v>7.31</v>
       </c>
       <c r="F24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" t="n">
-        <v>1666</v>
+        <v>1756</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -8925,10 +8925,10 @@
         <v>0</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.02547218</v>
+        <v>0.02705919</v>
       </c>
       <c r="AB24" t="n">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -8937,28 +8937,28 @@
         <v>1</v>
       </c>
       <c r="AE24" t="n">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="AF24" t="n">
-        <v>54.359925788497</v>
+        <v>53.75</v>
       </c>
       <c r="AG24" t="n">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="AH24" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AI24" t="n">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="AL24" t="n">
-        <v>35.86387434555</v>
+        <v>35.980148883375</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>85.71428571428601</v>
       </c>
       <c r="BG24" t="n">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="BH24" t="n">
         <v>1</v>
@@ -9039,28 +9039,28 @@
         <v>1</v>
       </c>
       <c r="BM24" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="BN24" t="n">
         <v>5</v>
       </c>
       <c r="BO24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BP24" t="n">
         <v>1</v>
       </c>
       <c r="BQ24" t="n">
-        <v>139</v>
+        <v>146.2</v>
       </c>
       <c r="BR24" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS24" t="n">
         <v>0</v>
       </c>
       <c r="BT24" t="n">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="BU24" t="n">
         <v>1</v>
@@ -9087,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="CC24" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="CD24" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CE24" t="n">
         <v>0</v>
@@ -9102,13 +9102,13 @@
         <v>2</v>
       </c>
       <c r="CH24" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="CI24" t="n">
+        <v>23</v>
+      </c>
+      <c r="CJ24" t="n">
         <v>22</v>
-      </c>
-      <c r="CJ24" t="n">
-        <v>21</v>
       </c>
       <c r="CK24" t="n">
         <v>4</v>
@@ -9123,7 +9123,7 @@
         <v>9</v>
       </c>
       <c r="CO24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -9156,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="CZ24" t="n">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="DA24" t="n">
         <v>2</v>
@@ -9174,13 +9174,13 @@
         <v>15</v>
       </c>
       <c r="DF24" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="DG24" t="n">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="DH24" t="n">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="DI24" t="n">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         </is>
       </c>
       <c r="DL24" t="n">
-        <v>2.657</v>
+        <v>2.3281</v>
       </c>
     </row>
     <row r="25">
